--- a/data/trans_camb/PCS12_SP_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-14.36666493061404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.462296936596899</v>
+        <v>-4.462296936596911</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-11.84865260533928</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.70305272724297</v>
+        <v>-15.59503684544047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.28332300037263</v>
+        <v>-19.36648267402495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.67449054720739</v>
+        <v>-11.14877137086681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.20627251652779</v>
+        <v>-15.9574113861931</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-21.76070408907658</v>
+        <v>-21.58240674263901</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.77129511433395</v>
+        <v>-16.54172643508133</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-15.58599587167137</v>
+        <v>-15.48958227819256</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-20.68043941732012</v>
+        <v>-20.4030862267821</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-13.22936088467022</v>
+        <v>-13.53780557913465</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.618232639014224</v>
+        <v>-5.154014303508713</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.902353351352446</v>
+        <v>-9.102187635186841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.877528272462998</v>
+        <v>1.95119129967058</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-7.780624070910935</v>
+        <v>-7.189738689639016</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-13.5128289213278</v>
+        <v>-12.82623587528458</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-6.772155978484541</v>
+        <v>-6.770543659463647</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-8.899175901214262</v>
+        <v>-8.616742894209143</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-13.92005686296395</v>
+        <v>-14.0990634112497</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.367758539737879</v>
+        <v>-5.633108972342411</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2538942332852419</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.07885973988257623</v>
+        <v>-0.07885973988257644</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1669870034071458</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2507125301405134</v>
+        <v>-0.2568333994813995</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3215323888378123</v>
+        <v>-0.3257001526231553</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1969599393796819</v>
+        <v>-0.1872302175955872</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2216328968852297</v>
+        <v>-0.220167680443255</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2991751190132053</v>
+        <v>-0.2953045086245197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2315189663901174</v>
+        <v>-0.2254221375868175</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2323430408973922</v>
+        <v>-0.2299284421324058</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3056050370649494</v>
+        <v>-0.3025005263648803</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.197295551605468</v>
+        <v>-0.2026030604480001</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.08839946415686391</v>
+        <v>-0.09507444007706933</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1669059624777409</v>
+        <v>-0.1706231174238693</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03388681252794291</v>
+        <v>0.03741754314302644</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.112393385191035</v>
+        <v>-0.1057961913328515</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1975283241407911</v>
+        <v>-0.1861972266702162</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09711911540462984</v>
+        <v>-0.09732112837199124</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.140187685772265</v>
+        <v>-0.1364446864551343</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2205703487578008</v>
+        <v>-0.2201801105123203</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.08458965426129353</v>
+        <v>-0.08717726427225674</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-8.649340401687377</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.5816124507437015</v>
+        <v>0.5816124507436959</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.393367068055055</v>
+        <v>-5.20171488775952</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.71185342952699</v>
+        <v>-11.88044915918887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.349215687568211</v>
+        <v>-4.89587050059651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.851634945788975</v>
+        <v>-3.924631909843024</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.31397297597116</v>
+        <v>-14.68922247592401</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.452922791617097</v>
+        <v>-3.710198359306712</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.305884769385502</v>
+        <v>-2.811615170969358</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.55496369412444</v>
+        <v>-11.86076845572384</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.400110944405289</v>
+        <v>-2.578865434524353</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.581340756700177</v>
+        <v>3.653696889458447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.079192200405013</v>
+        <v>-3.128400054575141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.904330076028244</v>
+        <v>4.228103495106772</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.728834453692595</v>
+        <v>4.892807003463307</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.508953736627733</v>
+        <v>-5.502049791966114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.875650346741745</v>
+        <v>4.986344677500963</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.026509162560983</v>
+        <v>3.338071108447423</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.384760550997012</v>
+        <v>-5.514284588305139</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.409757828673896</v>
+        <v>3.594285515212001</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1782085617009933</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.0119833783272311</v>
+        <v>0.01198337832723098</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1192474193979935</v>
+        <v>-0.116044996621004</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2616441438212447</v>
+        <v>-0.2623979014208274</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1188946352152654</v>
+        <v>-0.1097144028898973</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06950445549488067</v>
+        <v>-0.06992858421792322</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2594091314736839</v>
+        <v>-0.2602178000562368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06064357805345341</v>
+        <v>-0.06391661357554278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06651964711216243</v>
+        <v>-0.05557628454366438</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2330956376071392</v>
+        <v>-0.2390787096955369</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.04781719172033309</v>
+        <v>-0.05171603840897683</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09110949619110989</v>
+        <v>0.08876006234958148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.07441264816434319</v>
+        <v>-0.07731645212919191</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09668229416772108</v>
+        <v>0.1007452953659924</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09096628376104997</v>
+        <v>0.09483755101708015</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1059325875858001</v>
+        <v>-0.1051102368865901</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09617020376387343</v>
+        <v>0.09774341282932489</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06329077326716882</v>
+        <v>0.07218884868979875</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1135873405007709</v>
+        <v>-0.1160039734295549</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.0718148491752133</v>
+        <v>0.07824664815945127</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-4.576122924310678</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.428842228032368</v>
+        <v>-1.428842228032362</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.000133806505207</v>
@@ -1092,7 +1092,7 @@
         <v>-2.037749890069018</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.854296531198679</v>
+        <v>1.854296531198685</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.445511296517515</v>
+        <v>1.634072706710404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.252703186285383</v>
+        <v>-4.485030829851764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2329418569220527</v>
+        <v>0.03737304306305488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.946246693514281</v>
+        <v>-5.57888827250973</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.15140879504697</v>
+        <v>-9.255840318382935</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.43826861921112</v>
+        <v>-5.855108433791539</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1852637947568584</v>
+        <v>-0.216243355610758</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.506763489917309</v>
+        <v>-5.341236374321364</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.389829418842639</v>
+        <v>-1.004526789633678</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.48472628174119</v>
+        <v>10.73039799955203</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.245475456771707</v>
+        <v>4.733650555635145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.68119793392003</v>
+        <v>8.575030157897711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.211279424970352</v>
+        <v>3.442422277815361</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.007423865379801069</v>
+        <v>0.4556028106791587</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.470215490336956</v>
+        <v>2.64231639610481</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.263604948373866</v>
+        <v>6.122373925187683</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.093926581598841</v>
+        <v>1.403719618731009</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.463795133571857</v>
+        <v>5.00506078354477</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.0897511171588686</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.02802376341955222</v>
+        <v>-0.02802376341955211</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.06819344977733913</v>
@@ -1197,7 +1197,7 @@
         <v>-0.04631833236433976</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.04214841254693612</v>
+        <v>0.04214841254693625</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03561468784338391</v>
+        <v>0.04266917812900928</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1077436348142009</v>
+        <v>-0.1120565429364903</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0102179418289008</v>
+        <v>0.0006445938666310908</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1100625784189076</v>
+        <v>-0.1067091196532783</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1925301006023508</v>
+        <v>-0.1763166807739131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1023307454871079</v>
+        <v>-0.1098370980024728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.004960671143460035</v>
+        <v>-0.004552763969655422</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1212812547320554</v>
+        <v>-0.1199939701725742</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03025729403531776</v>
+        <v>-0.02208432685481031</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2925790076504438</v>
+        <v>0.3020701433918327</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1176314166698697</v>
+        <v>0.1327464719177789</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2377534868675522</v>
+        <v>0.2375388733522716</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.0678920169067833</v>
+        <v>0.07029285632176503</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0009247949156242144</v>
+        <v>0.009241288271229218</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05002156246820388</v>
+        <v>0.05510982753699624</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1478421563492175</v>
+        <v>0.1438307240263405</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0258832685909126</v>
+        <v>0.03200197110524079</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1049316248691096</v>
+        <v>0.1183880167342872</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.636296581237272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16.13356621031422</v>
+        <v>16.13356621031421</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.142704878805846</v>
@@ -1297,7 +1297,7 @@
         <v>-2.647851476435092</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.277407221173457</v>
+        <v>4.277407221173468</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>6.601745714332862</v>
@@ -1306,7 +1306,7 @@
         <v>2.880651908622689</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>11.0964018297572</v>
+        <v>11.09640182975719</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.757971404584167</v>
+        <v>2.130834984236202</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08499212316012816</v>
+        <v>0.07945921822118589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.20955335133894</v>
+        <v>10.26157293136471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.688911334922416</v>
+        <v>-4.225730801029588</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.410877284642901</v>
+        <v>-9.797376102004787</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.914519841851297</v>
+        <v>-2.275388080421812</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.027539643483373</v>
+        <v>1.73139996321736</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.850893285050947</v>
+        <v>-1.697945596604959</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.674433577418469</v>
+        <v>6.857463556946851</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.92314672273591</v>
+        <v>14.88973217241688</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.32955481202472</v>
+        <v>12.849608392558</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22.09716424066347</v>
+        <v>21.77644207843493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.31029328444305</v>
+        <v>10.13727486669576</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.475181156223862</v>
+        <v>4.351777570919172</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.46548002421147</v>
+        <v>10.54430028988064</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.95448061039052</v>
+        <v>11.369087297922</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.56690011153385</v>
+        <v>7.42045710461842</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.15156833104357</v>
+        <v>15.23636698125593</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2039303136035777</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.495777001003179</v>
+        <v>0.4957770010031787</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06789419722669698</v>
@@ -1402,7 +1402,7 @@
         <v>-0.0572035101292727</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09240801815396613</v>
+        <v>0.09240801815396636</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1715156868019987</v>
@@ -1411,7 +1411,7 @@
         <v>0.07484035464623126</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2882884411512188</v>
+        <v>0.2882884411512186</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05801796893333074</v>
+        <v>0.06055417747463123</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.003349417460078106</v>
+        <v>-0.004814531514684441</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2795420686756122</v>
+        <v>0.2719987966030912</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07405799049604914</v>
+        <v>-0.08407726768812677</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1914682847519322</v>
+        <v>-0.1967628347890165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03630556312096164</v>
+        <v>-0.04606252331893698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05077661286677032</v>
+        <v>0.04195396667024085</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04509307477281199</v>
+        <v>-0.04116907571787706</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1592802683283671</v>
+        <v>0.1645612057239539</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5073780892562464</v>
+        <v>0.5092364221087453</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4296719573524372</v>
+        <v>0.4271743378365805</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.763328211592782</v>
+        <v>0.7473885391791556</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2469495337061578</v>
+        <v>0.2409339181306603</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.106160618888683</v>
+        <v>0.1038808912018906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2574799815355301</v>
+        <v>0.2523336833265365</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3342762793126723</v>
+        <v>0.3163213349164145</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2081412384155061</v>
+        <v>0.2102203913194344</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4334112124381518</v>
+        <v>0.43339476367182</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.447109424242406</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.282836690457491</v>
+        <v>3.282836690457497</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.861069732862553</v>
@@ -1511,7 +1511,7 @@
         <v>-9.194957868435798</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.032430404452125</v>
+        <v>-4.032430404452114</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.5960091846549997</v>
@@ -1520,7 +1520,7 @@
         <v>-6.311725035972388</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.3583113778143465</v>
+        <v>-0.358311377814341</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8670935776775566</v>
+        <v>-0.9847458328710852</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.880429879000983</v>
+        <v>-6.03357355765965</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8175109642344704</v>
+        <v>0.6448377549797636</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.358251307601081</v>
+        <v>-5.374799783164793</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.68920592579039</v>
+        <v>-11.57879042094202</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.313235616622774</v>
+        <v>-6.286092602486065</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.436906131265194</v>
+        <v>-2.373174334527687</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.064264328989376</v>
+        <v>-8.126915738487737</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.984324823639284</v>
+        <v>-2.115451895787745</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.112499873188002</v>
+        <v>3.850419415436339</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9669021302550802</v>
+        <v>-1.026952333589851</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.856141385923025</v>
+        <v>5.963827276768171</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4831655047451063</v>
+        <v>-0.4867401795684405</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.748873721188725</v>
+        <v>-6.800717045579501</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.494052638948402</v>
+        <v>-1.750983544868979</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9907693293920741</v>
+        <v>1.233987136810607</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.57837769555602</v>
+        <v>-4.680014377962735</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.522011207275241</v>
+        <v>1.282027018190024</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.08155151940574944</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.07766516437945367</v>
+        <v>0.0776651643794538</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05018354556570648</v>
@@ -1616,7 +1616,7 @@
         <v>-0.161280790141289</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.07072936832612495</v>
+        <v>-0.07072936832612475</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.01198361106771547</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1269061953151581</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.007204359099516039</v>
+        <v>-0.007204359099515927</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01982505908010497</v>
+        <v>-0.02264411022538738</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1349810019853185</v>
+        <v>-0.1370180509935812</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0182532919240844</v>
+        <v>0.01500958885567947</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0921433072175442</v>
+        <v>-0.0925736520008042</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2011484098932032</v>
+        <v>-0.1981323606986468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1081650974480062</v>
+        <v>-0.109210667191464</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04821348104262503</v>
+        <v>-0.04662433157024128</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1591037236746967</v>
+        <v>-0.1599829596502839</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03924641054877533</v>
+        <v>-0.04179989061086522</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1003836949269877</v>
+        <v>0.09386519266461481</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.02321781051657004</v>
+        <v>-0.0248984062106306</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1415166179898468</v>
+        <v>0.1463549480292355</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.007936834819679987</v>
+        <v>-0.007897877178914898</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1211973336974442</v>
+        <v>-0.1199441360850919</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02685516480055888</v>
+        <v>-0.03240064170402038</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02016469284007426</v>
+        <v>0.02525430724479825</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.09308555800524268</v>
+        <v>-0.09519847527670869</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.03115446635067589</v>
+        <v>0.02619324668945821</v>
       </c>
     </row>
     <row r="34">
